--- a/test_DTW/tracing_points/tracing_points/分块后轨迹/inflection1+2059.xlsx
+++ b/test_DTW/tracing_points/tracing_points/分块后轨迹/inflection1+2059.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
